--- a/IPL/Kings XI Punjab/Krishnappa Gowtham .xlsx
+++ b/IPL/Kings XI Punjab/Krishnappa Gowtham .xlsx
@@ -408,13 +408,13 @@
         <v>Kings XI Punjab</v>
       </c>
       <c r="C2" t="str">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="str">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="str">
         <v>1</v>
@@ -428,13 +428,13 @@
         <v>Kings XI Punjab</v>
       </c>
       <c r="C3" t="str">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="str">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="str">
         <v>1</v>
